--- a/biology/Botanique/Rumex_thyrsiflorus/Rumex_thyrsiflorus.xlsx
+++ b/biology/Botanique/Rumex_thyrsiflorus/Rumex_thyrsiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rumex thyrsiflorus est une espèce de plantes herbacées dicotylédones de la famille des Polygonacées. En France, elle est désignée sous les noms vernaculaires de Patience à fleurs en thyrse, d'Oseille à oreillettes ou d'Oseille à fleurs en thyrse[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rumex thyrsiflorus est une espèce de plantes herbacées dicotylédones de la famille des Polygonacées. En France, elle est désignée sous les noms vernaculaires de Patience à fleurs en thyrse, d'Oseille à oreillettes ou d'Oseille à fleurs en thyrse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante vivace à souche qui produit des tiges de 40 à 100 cm de hauteur[4]. Ses feuilles sont assez étroites et épaisses, ses panicules très rameuses à fleurs petites, et ses valves fructifères sont larges de 3 à 4 mm[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante vivace à souche qui produit des tiges de 40 à 100 cm de hauteur. Ses feuilles sont assez étroites et épaisses, ses panicules très rameuses à fleurs petites, et ses valves fructifères sont larges de 3 à 4 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (3 juillet 2022)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 juillet 2022) (Attention liste brute contenant possiblement des synonymes) :
 Rumex thyrsiflorus subsp. haematinus (Kihlm.) Borodina
 Rumex thyrsiflorus subsp. papillaris (Boiss. &amp; Reut.) Sagredo &amp; Malag.
 Rumex thyrsiflorus var. mandshurica A.I. Baranov &amp; Skvortsov</t>
